--- a/biology/Biochimie/Petite_molécule/Petite_molécule.xlsx
+++ b/biology/Biochimie/Petite_molécule/Petite_molécule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petite_mol%C3%A9cule</t>
+          <t>Petite_molécule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une petite molécule est un composé organique de faible masse moléculaire qui par définition n'est pas un polymère. En pharmacologie, ce terme est restreint aux molécules qui ont une forte affinité pour des biopolymères tels que des protéines, les acides nucléiques ou les polysaccharides et modifient leur fonction ou leur activité biologique en se liant à eux. On fixe à environ 0,8 kDa la borne supérieure de la masse d'une petite molécule, ce qui correspond à la limite en dessous de laquelle les molécules peuvent diffuser à travers la membrane cellulaire pour atteindre leur cible à l'intérieur de la cellule. Cette limite correspond également au maximum permettant la biodisponibilité orale.
 Les petites molécules peuvent avoir une grande variété de fonctions biologiques, être utilisées comme médicaments en médecine, comme instruments de recherche en biologie moléculaire, comme messagers de signalisation cellulaire, comme insecticides en agriculture, etc. Il peut s'agir de composés naturels, tels que des métabolites secondaires, ou de composés synthétiques, tels que les antiviraux, et ils peuvent être bénéfiques, neutres ou nocifs, par exemple tératogènes ou cancérogènes.
